--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Chaper/Maurice_Chaper.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Chaper/Maurice_Chaper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Armand Chaper est un paléontologue et un géologue français, né le 13 février 1834 à Dijon et mort le 5 juillet 1896 à Vienne (Autriche).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de l’homme politique Achille Chaper (1795-1874) et d’Antoinette Marie Henriette née Teisseire. Il entre à l’École polytechnique en 1854 puis à l’École des mines de Paris l’année suivante, mais n’obtient aucun diplôme. Durant ses études, il s'intéresse à la paléontologie et travaille notamment aux couches de la Porte de France à Grenoble.
 Garde national durant la guerre de 1870-1871, il sert aux avant-postes à Arcueil et à Créteil comme capitaine, chef de bataillon puis lieutenant-colonel. Il démissionne lorsque éclate la Commune et est décrété d'arrestation. À partir de 1872, il est adjoint au maire du Ve arrondissement de Paris. Il fut à la tête de nombreuses expéditions d'exploration botanique et zoologique au Venezuela, en Californie dans les Montagnes Rocheuses, à Bornéo, en Afrique du Sud et dans l'Oural. Ses dons au Muséum d'histoire naturelle de Paris, à celui de Grenoble et à l'École des Mines enrichissent considérablement les collections de ces établissements. Il travaille ensuite comme géologue et paléontologue en tant que membre de la commission d’étude sur le canal de Panama.
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notes sur quelques faits observés dans le massif de l'Oural... (1879)
 Note sur la région diamantifère de l'Afrique australe (1880)
@@ -580,7 +596,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(fr) Site des Annales des mines</t>
         </is>
